--- a/shoraka/1403.xlsx
+++ b/shoraka/1403.xlsx
@@ -1,48 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G L S\Dropbox\shoraka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000_projects\exel_010\shoraka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5227C85-218F-4280-81A7-860199BE6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6A96F-A886-49EC-95B5-26268B050B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="33870" windowHeight="20895" tabRatio="603" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="603" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="2" r:id="rId1"/>
     <sheet name="5" sheetId="4" r:id="rId2"/>
     <sheet name="6" sheetId="5" r:id="rId3"/>
     <sheet name="7" sheetId="7" r:id="rId4"/>
-    <sheet name="8" sheetId="9" r:id="rId5"/>
-    <sheet name="9" sheetId="12" r:id="rId6"/>
-    <sheet name="10" sheetId="13" r:id="rId7"/>
-    <sheet name="11" sheetId="14" r:id="rId8"/>
-    <sheet name="12" sheetId="15" r:id="rId9"/>
-    <sheet name="01" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId5"/>
+    <sheet name="8" sheetId="9" r:id="rId6"/>
+    <sheet name="9" sheetId="12" r:id="rId7"/>
+    <sheet name="10" sheetId="13" r:id="rId8"/>
+    <sheet name="11" sheetId="14" r:id="rId9"/>
+    <sheet name="12" sheetId="15" r:id="rId10"/>
+    <sheet name="01" sheetId="16" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'4'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="143">
   <si>
     <t>مجتبی</t>
   </si>
@@ -468,6 +478,9 @@
   </si>
   <si>
     <t>مام + کتونی نظری</t>
+  </si>
+  <si>
+    <t>خ</t>
   </si>
 </sst>
 </file>
@@ -1042,11 +1055,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="1403"/>
     </sheetNames>
@@ -1335,7 +1345,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1357,11 +1367,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="رمضون"/>
       <sheetName val="صباحی"/>
@@ -1376,23 +1383,28 @@
       <sheetName val="قسط وام"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="45">
           <cell r="B45">
             <v>40</v>
           </cell>
+          <cell r="C45"/>
+          <cell r="D45"/>
+          <cell r="E45"/>
+          <cell r="F45"/>
+          <cell r="G45"/>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1667,22 +1679,22 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.2" thickTop="1" thickBottom="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1726,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45392</v>
       </c>
@@ -1736,7 +1748,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45398</v>
       </c>
@@ -1758,7 +1770,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="28.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45397</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45398</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45400</v>
       </c>
@@ -1833,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45400</v>
       </c>
@@ -1858,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45400</v>
       </c>
@@ -1883,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45400</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45400</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>45405</v>
       </c>
@@ -1955,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45405</v>
       </c>
@@ -1982,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>118</v>
       </c>
@@ -2024,7 +2036,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="32" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="34">
         <f>SUM('[1]1403'!B11:B28)</f>
@@ -2064,26 +2076,26 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="91" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="18.75" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="18" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="18" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2091,6 +2103,515 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EEDD8A-C898-4B34-A93B-1442480C7053}">
+  <dimension ref="A1:J94"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A16" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30">
+        <v>45993</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
+        <v>3600</v>
+      </c>
+      <c r="E2" s="32">
+        <v>-3600</v>
+      </c>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30">
+        <v>45993</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-14200</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="32">
+        <v>14200</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30">
+        <v>45994</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15">
+        <v>-1860</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59">
+        <v>1860</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30">
+        <v>45994</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15">
+        <v>720</v>
+      </c>
+      <c r="E5" s="32">
+        <v>720</v>
+      </c>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30">
+        <v>45996</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15">
+        <v>50</v>
+      </c>
+      <c r="E6" s="32">
+        <v>-400</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59">
+        <v>300</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="61"/>
+    </row>
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30">
+        <v>45997</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="32">
+        <v>80</v>
+      </c>
+      <c r="F7" s="59">
+        <v>-80</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30">
+        <v>45997</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15">
+        <v>100</v>
+      </c>
+      <c r="E8" s="32">
+        <v>-100</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" s="61"/>
+    </row>
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30">
+        <v>45997</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
+        <v>5638</v>
+      </c>
+      <c r="E9" s="32">
+        <v>-5638</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9" s="61"/>
+    </row>
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30">
+        <v>45998</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="32">
+        <v>679</v>
+      </c>
+      <c r="F10" s="59">
+        <v>-679</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="61"/>
+    </row>
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30">
+        <v>45998</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
+        <v>-930</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59">
+        <v>930</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="61"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30">
+        <v>46007</v>
+      </c>
+      <c r="B12" s="15">
+        <v>340</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="32">
+        <v>-340</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="56">
+        <v>46016</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17">
+        <v>-185</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60">
+        <v>185</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="61">
+        <f>SUM(B13:G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="30">
+        <v>46015</v>
+      </c>
+      <c r="B14" s="15">
+        <v>-360</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="32">
+        <v>360</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="30">
+        <v>46015</v>
+      </c>
+      <c r="B15" s="15">
+        <v>-130</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="32">
+        <v>130</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>46014</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15">
+        <v>100</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-100</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="61"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="30">
+        <v>46013</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15">
+        <v>-120</v>
+      </c>
+      <c r="E17" s="32">
+        <v>120</v>
+      </c>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="61"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="30">
+        <v>46014</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
+        <v>-120</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="32">
+        <v>120</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="61"/>
+    </row>
+    <row r="19" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="30">
+        <v>46013</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15">
+        <v>-360</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="32">
+        <v>360</v>
+      </c>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" s="61"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="56">
+        <v>46018</v>
+      </c>
+      <c r="B92" s="17">
+        <v>1116</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="32">
+        <v>-1116</v>
+      </c>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="J92" s="61">
+        <f>SUM(B92:G92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="56">
+        <v>46019</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="32">
+        <v>1500</v>
+      </c>
+      <c r="F93" s="60">
+        <v>1500</v>
+      </c>
+      <c r="G93" s="60"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="J93" s="61">
+        <f>SUM(B93:G93)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="34">
+        <f>SUM('[3]غرفه ارم'!B45:B45)</f>
+        <v>40</v>
+      </c>
+      <c r="C94" s="34">
+        <f>SUM('[3]غرفه ارم'!C45:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="34">
+        <f>SUM('[3]غرفه ارم'!D45:D45)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="34">
+        <f>SUM('[3]غرفه ارم'!E45:E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="34">
+        <f>SUM('[3]غرفه ارم'!F45:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="34">
+        <f>SUM('[3]غرفه ارم'!G45:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="61">
+        <f>SUM(B94:G94)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77339588-811F-45B5-B3FD-C7AE1F846F13}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2098,19 +2619,19 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2142,7 +2663,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2157,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="17">
         <v>-2970</v>
@@ -2175,7 +2696,7 @@
       </c>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56">
         <v>45658</v>
       </c>
@@ -2195,7 +2716,7 @@
       </c>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="56">
         <v>45659</v>
       </c>
@@ -2215,7 +2736,7 @@
       </c>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56">
         <v>45660</v>
       </c>
@@ -2239,7 +2760,7 @@
       </c>
       <c r="J6" s="55"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="56">
         <v>45660</v>
       </c>
@@ -2263,7 +2784,7 @@
       </c>
       <c r="J7" s="55"/>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="56">
         <v>45661</v>
       </c>
@@ -2283,7 +2804,7 @@
       </c>
       <c r="J8" s="55"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="56">
         <v>45664</v>
       </c>
@@ -2303,7 +2824,7 @@
       </c>
       <c r="J9" s="55"/>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="56"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2315,7 +2836,7 @@
       <c r="I10" s="58"/>
       <c r="J10" s="55"/>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2327,7 +2848,7 @@
       <c r="I11" s="58"/>
       <c r="J11" s="55"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>118</v>
       </c>
@@ -2377,18 +2898,18 @@
       <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2420,7 +2941,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45418</v>
       </c>
@@ -2446,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>45418</v>
       </c>
@@ -2473,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>45419</v>
       </c>
@@ -2496,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>45422</v>
       </c>
@@ -2521,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>45424</v>
       </c>
@@ -2544,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>45425</v>
       </c>
@@ -2567,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>45791</v>
       </c>
@@ -2583,7 +3104,7 @@
       </c>
       <c r="J8" s="51"/>
     </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>45427</v>
       </c>
@@ -2606,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>45430</v>
       </c>
@@ -2633,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="15">
         <v>184</v>
@@ -2652,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>45431</v>
       </c>
@@ -2682,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>45431</v>
       </c>
@@ -2708,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>45432</v>
       </c>
@@ -2731,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>45434</v>
       </c>
@@ -2757,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>45435</v>
       </c>
@@ -2780,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>45435</v>
       </c>
@@ -2803,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>45438</v>
       </c>
@@ -2826,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>45438</v>
       </c>
@@ -2849,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="23">
         <v>45439</v>
       </c>
@@ -2872,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="23">
         <v>45439</v>
       </c>
@@ -2895,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>118</v>
       </c>
@@ -2949,21 +3470,21 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2995,7 +3516,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>45444</v>
       </c>
@@ -3020,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>45444</v>
       </c>
@@ -3043,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>45449</v>
       </c>
@@ -3068,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>45449</v>
       </c>
@@ -3093,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>45449</v>
       </c>
@@ -3118,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>45451</v>
       </c>
@@ -3141,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>45453</v>
       </c>
@@ -3166,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>45453</v>
       </c>
@@ -3189,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>45453</v>
       </c>
@@ -3214,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>45454</v>
       </c>
@@ -3239,7 +3760,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>45457</v>
       </c>
@@ -3266,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="20.399999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>45458</v>
       </c>
@@ -3289,7 +3810,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>45459</v>
       </c>
@@ -3310,7 +3831,7 @@
         <v>45474</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>45459</v>
       </c>
@@ -3333,7 +3854,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>45460</v>
       </c>
@@ -3354,7 +3875,7 @@
         <v>62660</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>45461</v>
       </c>
@@ -3377,7 +3898,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>45462</v>
       </c>
@@ -3400,7 +3921,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="55.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>45463</v>
       </c>
@@ -3423,7 +3944,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>45463</v>
       </c>
@@ -3446,7 +3967,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30">
         <v>45463</v>
       </c>
@@ -3469,7 +3990,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>45463</v>
       </c>
@@ -3494,7 +4015,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30">
         <v>45464</v>
       </c>
@@ -3517,7 +4038,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30">
         <v>45464</v>
       </c>
@@ -3540,7 +4061,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30">
         <v>45465</v>
       </c>
@@ -3563,7 +4084,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30">
         <v>45464</v>
       </c>
@@ -3586,7 +4107,7 @@
         <v>45464</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
         <v>45465</v>
       </c>
@@ -3609,7 +4130,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30">
         <v>45465</v>
       </c>
@@ -3634,7 +4155,7 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30">
         <v>45468</v>
       </c>
@@ -3657,7 +4178,7 @@
         <v>45468</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30">
         <v>45470</v>
       </c>
@@ -3682,7 +4203,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30">
         <v>45472</v>
       </c>
@@ -3703,7 +4224,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="30">
         <v>45472</v>
       </c>
@@ -3728,7 +4249,7 @@
         <v>45472</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="30">
         <v>45472</v>
       </c>
@@ -3751,7 +4272,7 @@
         <v>45472</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="30"/>
       <c r="B34" s="15">
         <v>510</v>
@@ -3770,7 +4291,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="30"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -3787,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3804,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>45449</v>
       </c>
@@ -3829,7 +4350,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>118</v>
       </c>
@@ -3875,25 +4396,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37636E46-4205-44D0-AE3B-2EEF747C9FB1}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J5" sqref="B5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -3928,7 +4449,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>45476</v>
       </c>
@@ -3950,7 +4471,7 @@
         <v>45516</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>45476</v>
       </c>
@@ -3974,7 +4495,7 @@
         <v>45476</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>45477</v>
       </c>
@@ -3998,7 +4519,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>45478</v>
       </c>
@@ -4022,7 +4543,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>45478</v>
       </c>
@@ -4046,7 +4567,7 @@
         <v>85178</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>45478</v>
       </c>
@@ -4070,7 +4591,7 @@
         <v>45478</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>45478</v>
       </c>
@@ -4092,7 +4613,7 @@
         <v>45758</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>45478</v>
       </c>
@@ -4114,7 +4635,7 @@
         <v>45738</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>45481</v>
       </c>
@@ -4136,7 +4657,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>45481</v>
       </c>
@@ -4160,7 +4681,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>45482</v>
       </c>
@@ -4182,7 +4703,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>45483</v>
       </c>
@@ -4206,7 +4727,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>45483</v>
       </c>
@@ -4230,7 +4751,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>45848</v>
       </c>
@@ -4256,7 +4777,7 @@
         <v>45848</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>45483</v>
       </c>
@@ -4280,7 +4801,7 @@
         <v>45483</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>45494</v>
       </c>
@@ -4304,7 +4825,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>45494</v>
       </c>
@@ -4328,7 +4849,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>45499</v>
       </c>
@@ -4350,7 +4871,7 @@
         <v>56999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>45500</v>
       </c>
@@ -4374,7 +4895,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30">
         <v>45501</v>
       </c>
@@ -4398,7 +4919,7 @@
         <v>45501</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30">
         <v>45502</v>
       </c>
@@ -4422,7 +4943,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30">
         <v>45502</v>
       </c>
@@ -4446,7 +4967,7 @@
         <v>45502</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -4464,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -4482,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4500,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -4518,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -4536,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -4554,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -4572,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>118</v>
       </c>
@@ -4612,25 +5133,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7AAA0C-6B63-48A5-97A0-7FE347D0A48B}">
+  <dimension ref="M9:O11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="9" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>43.26</v>
+      </c>
+      <c r="N9">
+        <v>143.26</v>
+      </c>
+    </row>
+    <row r="10" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="O10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
+        <v>94.744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19A1020-8442-4DB3-9FB6-912EABB3AACF}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView rightToLeft="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -4662,7 +5222,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>45505</v>
       </c>
@@ -4685,7 +5245,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>45506</v>
       </c>
@@ -4708,7 +5268,7 @@
         <v>45506</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>45509</v>
       </c>
@@ -4731,7 +5291,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>45509</v>
       </c>
@@ -4754,7 +5314,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30">
         <v>45510</v>
       </c>
@@ -4777,7 +5337,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>45510</v>
       </c>
@@ -4800,7 +5360,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30">
         <v>45510</v>
       </c>
@@ -4821,7 +5381,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>45514</v>
       </c>
@@ -4844,7 +5404,7 @@
         <v>45514</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -4861,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="30"/>
       <c r="B11" s="15">
         <v>264</v>
@@ -4882,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4897,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="30"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -4912,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>45519</v>
       </c>
@@ -4935,7 +5495,7 @@
         <v>45519</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>45521</v>
       </c>
@@ -4956,7 +5516,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>45522</v>
       </c>
@@ -4979,7 +5539,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="101.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="101.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30">
         <v>45522</v>
       </c>
@@ -5004,7 +5564,7 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30">
         <v>45522</v>
       </c>
@@ -5027,7 +5587,7 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30">
         <v>45522</v>
       </c>
@@ -5050,7 +5610,7 @@
         <v>45522</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="30">
         <v>45522</v>
       </c>
@@ -5073,7 +5633,7 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -5090,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="30"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -5107,7 +5667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="30"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -5124,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30">
         <v>45524</v>
       </c>
@@ -5147,7 +5707,7 @@
         <v>45524</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30">
         <v>45525</v>
       </c>
@@ -5168,7 +5728,7 @@
         <v>46005</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30">
         <v>45526</v>
       </c>
@@ -5189,7 +5749,7 @@
         <v>45721</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30">
         <v>45534</v>
       </c>
@@ -5212,7 +5772,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>118</v>
       </c>
@@ -5254,7 +5814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E9F96-F1ED-452F-AE4F-2EAA47E776FD}">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -5262,18 +5822,18 @@
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5305,7 +5865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="34">
         <f>'7'!B31</f>
@@ -5342,7 +5902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30">
         <v>45540</v>
       </c>
@@ -5365,7 +5925,7 @@
         <v>45540</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>45563</v>
       </c>
@@ -5391,7 +5951,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>45564</v>
       </c>
@@ -5415,7 +5975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>118</v>
       </c>
@@ -5457,7 +6017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0078D7FA-0415-4E16-9857-AB15D4357489}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -5465,19 +6025,19 @@
       <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5509,7 +6069,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>45567</v>
       </c>
@@ -5530,7 +6090,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5542,7 +6102,7 @@
       <c r="I3" s="58"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5554,7 +6114,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
@@ -5596,7 +6156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E163334-991F-4D77-A291-ED1E691DCE55}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -5604,19 +6164,19 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -5648,7 +6208,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5663,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="56"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -5675,7 +6235,7 @@
       <c r="I3" s="58"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="56"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5687,7 +6247,7 @@
       <c r="I4" s="58"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>118</v>
       </c>
@@ -5722,515 +6282,6 @@
       <c r="J5" s="55">
         <f>SUM(B5:G5)</f>
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EEDD8A-C898-4B34-A93B-1442480C7053}">
-  <dimension ref="A1:J94"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
-        <v>45993</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15">
-        <v>3600</v>
-      </c>
-      <c r="E2" s="32">
-        <v>-3600</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J2" s="61"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
-        <v>45993</v>
-      </c>
-      <c r="B3" s="15">
-        <v>-14200</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="32">
-        <v>14200</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="61"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <v>45994</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
-        <v>-1860</v>
-      </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59">
-        <v>1860</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="61"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <v>45994</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
-        <v>720</v>
-      </c>
-      <c r="E5" s="32">
-        <v>720</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="J5" s="61"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>45996</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15">
-        <v>50</v>
-      </c>
-      <c r="D6" s="15">
-        <v>50</v>
-      </c>
-      <c r="E6" s="32">
-        <v>-400</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59">
-        <v>300</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="J6" s="61"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <v>45997</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="32">
-        <v>80</v>
-      </c>
-      <c r="F7" s="59">
-        <v>-80</v>
-      </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <v>45997</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15">
-        <v>100</v>
-      </c>
-      <c r="E8" s="32">
-        <v>-100</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" s="61"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <v>45997</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15">
-        <v>5638</v>
-      </c>
-      <c r="E9" s="32">
-        <v>-5638</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" s="61"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <v>45998</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="32">
-        <v>679</v>
-      </c>
-      <c r="F10" s="59">
-        <v>-679</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="61"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <v>45998</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15">
-        <v>-930</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59">
-        <v>930</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="61"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <v>46007</v>
-      </c>
-      <c r="B12" s="15">
-        <v>340</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="32">
-        <v>-340</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56">
-        <v>46016</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17">
-        <v>-185</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60">
-        <v>185</v>
-      </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" s="61">
-        <f>SUM(B13:G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
-        <v>46015</v>
-      </c>
-      <c r="B14" s="15">
-        <v>-360</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="32">
-        <v>360</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="61"/>
-    </row>
-    <row r="15" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
-        <v>46015</v>
-      </c>
-      <c r="B15" s="15">
-        <v>-130</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="32">
-        <v>130</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="61"/>
-    </row>
-    <row r="16" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
-        <v>46014</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15">
-        <v>100</v>
-      </c>
-      <c r="D16" s="15">
-        <v>-100</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
-        <v>46013</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15">
-        <v>-120</v>
-      </c>
-      <c r="E17" s="32">
-        <v>120</v>
-      </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
-        <v>46014</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15">
-        <v>-120</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="32">
-        <v>120</v>
-      </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
-        <v>46013</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15">
-        <v>-360</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="32">
-        <v>360</v>
-      </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="J19" s="61"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="56">
-        <v>46018</v>
-      </c>
-      <c r="B92" s="17">
-        <v>1116</v>
-      </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="32">
-        <v>-1116</v>
-      </c>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="57"/>
-      <c r="I92" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="J92" s="61">
-        <f>SUM(B92:G92)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="56">
-        <v>46019</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="32">
-        <v>1500</v>
-      </c>
-      <c r="F93" s="60">
-        <v>1500</v>
-      </c>
-      <c r="G93" s="60"/>
-      <c r="H93" s="57"/>
-      <c r="I93" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="J93" s="61">
-        <f>SUM(B93:G93)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B94" s="34">
-        <f>SUM('[3]غرفه ارم'!B45:B45)</f>
-        <v>40</v>
-      </c>
-      <c r="C94" s="34">
-        <f>SUM('[3]غرفه ارم'!C45:C45)</f>
-        <v>0</v>
-      </c>
-      <c r="D94" s="34">
-        <f>SUM('[3]غرفه ارم'!D45:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="34">
-        <f>SUM('[3]غرفه ارم'!E45:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="34">
-        <f>SUM('[3]غرفه ارم'!F45:F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="34">
-        <f>SUM('[3]غرفه ارم'!G45:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="35"/>
-      <c r="I94" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J94" s="61">
-        <f>SUM(B94:G94)</f>
-        <v>40</v>
       </c>
     </row>
   </sheetData>
